--- a/data/Hotel Names, Addresses, ID, and Coordinates.xlsx
+++ b/data/Hotel Names, Addresses, ID, and Coordinates.xlsx
@@ -32,7 +32,7 @@
     <t>1 Hotel Central Park</t>
   </si>
   <si>
-    <t>1414 Avenue Of The Americas</t>
+    <t>1414 Avenue Of The Americas, New York NY</t>
   </si>
   <si>
     <t>(40.7647485, -73.9764725)</t>
@@ -41,7 +41,7 @@
     <t>11 Howard</t>
   </si>
   <si>
-    <t>11 Howard St</t>
+    <t>11 Howard St, New York NY</t>
   </si>
   <si>
     <t>(40.7191766, -73.99992759999999)</t>
@@ -50,7 +50,7 @@
     <t>Ace Hotel New York</t>
   </si>
   <si>
-    <t>20 W 29th St</t>
+    <t>20 W 29th St, New York NY</t>
   </si>
   <si>
     <t>(40.7457432, -73.9882603)</t>
@@ -59,7 +59,7 @@
     <t>Ameritania Hotel</t>
   </si>
   <si>
-    <t>230 W 54th St</t>
+    <t>230 W 54th St, New York NY</t>
   </si>
   <si>
     <t>(40.7640045, -73.9829075)</t>
@@ -68,7 +68,7 @@
     <t>Andaz Wall Street</t>
   </si>
   <si>
-    <t>75 Wall St</t>
+    <t>75 Wall St, New York NY</t>
   </si>
   <si>
     <t>(40.7051404, -74.0079954)</t>
@@ -77,7 +77,7 @@
     <t>Archer Hotel New York</t>
   </si>
   <si>
-    <t>45 W 38th St</t>
+    <t>45 W 38th St, New York NY</t>
   </si>
   <si>
     <t>(40.752027, -73.9847224)</t>
@@ -86,7 +86,7 @@
     <t>Arlo Hudson Square</t>
   </si>
   <si>
-    <t>231 Hudson St</t>
+    <t>231 Hudson St, New York NY</t>
   </si>
   <si>
     <t>(40.7244391, -74.00823749999999)</t>
@@ -95,7 +95,7 @@
     <t>Ascend Collection Distrikt Hotel New York City</t>
   </si>
   <si>
-    <t>342 W 40th St</t>
+    <t>342 W 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.7566314, -73.9928546)</t>
@@ -104,7 +104,7 @@
     <t>Autograph Collection Carlton Hotel</t>
   </si>
   <si>
-    <t>88 Madison Ave</t>
+    <t>88 Madison Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7444291, -73.9857968)</t>
@@ -113,7 +113,7 @@
     <t>Autograph Collection The Lexington New York City</t>
   </si>
   <si>
-    <t>511 Lexington Ave</t>
+    <t>511 Lexington Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7548069, -73.9731814)</t>
@@ -122,7 +122,7 @@
     <t>Best Western Bowery Hanbee Hotel</t>
   </si>
   <si>
-    <t>231 Grand St</t>
+    <t>231 Grand St, New York NY</t>
   </si>
   <si>
     <t>(40.7184002, -73.9952811)</t>
@@ -131,7 +131,7 @@
     <t>Bryant Park Hotel</t>
   </si>
   <si>
-    <t>40 W 40th St</t>
+    <t>40 W 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.75281280000001, -73.98376499999999)</t>
@@ -140,7 +140,7 @@
     <t>Cambria hotel &amp; suites New York Chelsea</t>
   </si>
   <si>
-    <t>123 W 28th St</t>
+    <t>123 W 28th St, New York NY</t>
   </si>
   <si>
     <t>(40.7467552, -73.9915459)</t>
@@ -149,7 +149,7 @@
     <t>Candlewood Suites New York City Times Square</t>
   </si>
   <si>
-    <t>339 W 39th St</t>
+    <t>339 W 39th St, New York NY</t>
   </si>
   <si>
     <t>(40.7563122, -73.9929689)</t>
@@ -158,7 +158,7 @@
     <t>citizenM New York Times Square</t>
   </si>
   <si>
-    <t>218 W 50th St</t>
+    <t>218 W 50th St, New York NY</t>
   </si>
   <si>
     <t>(40.761561, -73.984968)</t>
@@ -167,16 +167,16 @@
     <t>Conrad New York</t>
   </si>
   <si>
-    <t>102 North End Ave</t>
-  </si>
-  <si>
-    <t>(40.714989, -74.015236)</t>
+    <t>102 North End Ave, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7150015, -74.01522179999999)</t>
   </si>
   <si>
     <t>Courtyard New York Manhattan 5th Avenue</t>
   </si>
   <si>
-    <t>3 E 40th St</t>
+    <t>3 E 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.752057, -73.98109459999999)</t>
@@ -185,16 +185,16 @@
     <t>Courtyard New York Manhattan Central Park</t>
   </si>
   <si>
-    <t>1717 Broadway</t>
-  </si>
-  <si>
-    <t>(40.7643734, -73.982743)</t>
+    <t>1717 Broadway, New York NY</t>
+  </si>
+  <si>
+    <t>(40.764302, -73.9827054)</t>
   </si>
   <si>
     <t>Courtyard New York Manhattan Chelsea</t>
   </si>
   <si>
-    <t>135 W 30th St</t>
+    <t>135 W 30th St, New York NY</t>
   </si>
   <si>
     <t>(40.7482231, -73.9911923)</t>
@@ -203,7 +203,7 @@
     <t>Courtyard New York Manhattan Herald Square</t>
   </si>
   <si>
-    <t>71 W 35th St @ 6th Ave</t>
+    <t>71 W 35th St @ 6th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7504619, -73.9872841)</t>
@@ -212,7 +212,7 @@
     <t>Courtyard New York Manhattan Midtown East</t>
   </si>
   <si>
-    <t>866 3rd Ave</t>
+    <t>866 3rd Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7575426, -73.9700204)</t>
@@ -221,7 +221,7 @@
     <t>Courtyard New York Manhattan SoHo</t>
   </si>
   <si>
-    <t>181 Varick St</t>
+    <t>181 Varick St, New York NY</t>
   </si>
   <si>
     <t>(40.7275481, -74.0058074)</t>
@@ -230,7 +230,7 @@
     <t>Courtyard New York Manhattan Times Square South</t>
   </si>
   <si>
-    <t>114 W 40th St</t>
+    <t>114 W 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.753944, -73.9859878)</t>
@@ -239,7 +239,7 @@
     <t>Courtyard New York Manhattan Times Square West</t>
   </si>
   <si>
-    <t>307 W 37th St</t>
+    <t>307 W 37th St, New York NY</t>
   </si>
   <si>
     <t>(40.7544922, -73.9925544)</t>
@@ -248,16 +248,16 @@
     <t>Crowne Plaza Times Square Manhattan</t>
   </si>
   <si>
-    <t>1605 Broadway</t>
+    <t>1605 Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.7603998, -73.9848876)</t>
   </si>
   <si>
-    <t>Curio Collection The Renwick Hotel New York City </t>
-  </si>
-  <si>
-    <t>118 E 40th St</t>
+    <t>Curio Collection The Renwick Hotel New York City</t>
+  </si>
+  <si>
+    <t>118 E 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.7501895, -73.9775843)</t>
@@ -266,7 +266,7 @@
     <t>DoubleTree Hotel Metropolitan New York City</t>
   </si>
   <si>
-    <t>569 Lexington Ave</t>
+    <t>569 Lexington Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7567148, -73.9714247)</t>
@@ -275,7 +275,7 @@
     <t>Doubletree New York City Chelsea</t>
   </si>
   <si>
-    <t>128 W 29th St</t>
+    <t>128 W 29th St, New York NY</t>
   </si>
   <si>
     <t>(40.7469627, -73.99142719999999)</t>
@@ -284,7 +284,7 @@
     <t>Doubletree New York City Financial District</t>
   </si>
   <si>
-    <t>8 Stone St</t>
+    <t>8 Stone St, New York NY</t>
   </si>
   <si>
     <t>(40.703861, -74.01233069999999)</t>
@@ -293,7 +293,7 @@
     <t>Doubletree New York Times Square South</t>
   </si>
   <si>
-    <t>341 W 36th St</t>
+    <t>341 W 36th St, New York NY</t>
   </si>
   <si>
     <t>(40.7543497, -73.99411900000001)</t>
@@ -302,16 +302,16 @@
     <t>DoubleTree Suites New York City Times Square</t>
   </si>
   <si>
-    <t>1568 Broadway</t>
+    <t>1568 Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.7589488, -73.9845637)</t>
   </si>
   <si>
-    <t>Dream Hotel Downtown </t>
-  </si>
-  <si>
-    <t>355 W 17th St </t>
+    <t>Dream Hotel Downtown</t>
+  </si>
+  <si>
+    <t>355 W 17th St , New York NY</t>
   </si>
   <si>
     <t>(40.7426266, -74.00339699999999)</t>
@@ -320,7 +320,7 @@
     <t>Dream Hotel Midtown</t>
   </si>
   <si>
-    <t>210 W 55th St</t>
+    <t>210 W 55th St, New York NY</t>
   </si>
   <si>
     <t>(40.76442309999999, -73.9819603)</t>
@@ -329,7 +329,7 @@
     <t>Dumont NYC an Affinia Hotel</t>
   </si>
   <si>
-    <t>150 E 34th St</t>
+    <t>150 E 34th St, New York NY</t>
   </si>
   <si>
     <t>(40.745913, -73.979291)</t>
@@ -338,16 +338,16 @@
     <t>Edison Hotel</t>
   </si>
   <si>
-    <t>228 W 47th St</t>
+    <t>228 W 47th St, New York NY</t>
   </si>
   <si>
     <t>(40.7596825, -73.98635039999999)</t>
   </si>
   <si>
-    <t>Edition The New York </t>
-  </si>
-  <si>
-    <t>5 Madison Ave</t>
+    <t>Edition The New York</t>
+  </si>
+  <si>
+    <t>5 Madison Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7412743, -73.9873664)</t>
@@ -356,7 +356,7 @@
     <t>element New York Times Square West</t>
   </si>
   <si>
-    <t>311 W 39th St</t>
+    <t>311 W 39th St, New York NY</t>
   </si>
   <si>
     <t>(40.7558623, -73.9917756)</t>
@@ -365,7 +365,7 @@
     <t>EVEN Hotels Times Square South</t>
   </si>
   <si>
-    <t>321 W 35th St</t>
+    <t>321 W 35th St, New York NY</t>
   </si>
   <si>
     <t>(40.75347, -73.99383499999999)</t>
@@ -374,7 +374,7 @@
     <t>Fairfield Inn &amp; Suites New York Manhattan Central Park</t>
   </si>
   <si>
-    <t>538 W 58th St</t>
+    <t>538 W 58th St, New York NY</t>
   </si>
   <si>
     <t>(40.7704722, -73.98967569999999)</t>
@@ -383,7 +383,7 @@
     <t>Fairfield Inn &amp; Suites New York Manhattan Financial District</t>
   </si>
   <si>
-    <t>161 Front St</t>
+    <t>161 Front St, New York NY</t>
   </si>
   <si>
     <t>(40.7058519, -74.0047912)</t>
@@ -392,7 +392,7 @@
     <t>Fairfield Inn &amp; Suites New York Manhattan Times Square</t>
   </si>
   <si>
-    <t>330 W 40th St</t>
+    <t>330 W 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.7564458, -73.99249139999999)</t>
@@ -401,7 +401,7 @@
     <t>Fairfield Inn &amp; Suites New York Midtown Manhattan Penn Station</t>
   </si>
   <si>
-    <t>325 W 33rd St</t>
+    <t>325 W 33rd St, New York NY</t>
   </si>
   <si>
     <t>(40.7522573, -73.9951129)</t>
@@ -410,7 +410,7 @@
     <t>Fifty NYC an Affinia Hotel</t>
   </si>
   <si>
-    <t>155 E 50th St</t>
+    <t>155 E 50th St, New York NY</t>
   </si>
   <si>
     <t>(40.75610409999999, -73.97095449999999)</t>
@@ -419,7 +419,7 @@
     <t>Four Points by Sheraton Manhattan Chelsea</t>
   </si>
   <si>
-    <t>160 W 25th St</t>
+    <t>160 W 25th St, New York NY</t>
   </si>
   <si>
     <t>(40.7449187, -73.9942303)</t>
@@ -428,7 +428,7 @@
     <t>Four Points by Sheraton Manhattan SoHo Village</t>
   </si>
   <si>
-    <t>66 Charlton St</t>
+    <t>66 Charlton St, New York NY</t>
   </si>
   <si>
     <t>(40.72698, -74.006115)</t>
@@ -437,7 +437,7 @@
     <t>Four Points by Sheraton Midtown Times Square</t>
   </si>
   <si>
-    <t>326 W 40th St</t>
+    <t>326 W 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.7564022, -73.9923529)</t>
@@ -446,7 +446,7 @@
     <t>Four Points by Sheraton New York Downtown</t>
   </si>
   <si>
-    <t>6 Platt St</t>
+    <t>6 Platt St, New York NY</t>
   </si>
   <si>
     <t>(40.7073433, -74.00638719999999)</t>
@@ -455,7 +455,7 @@
     <t>Four Seasons Hotel New York</t>
   </si>
   <si>
-    <t>57 E 57th St</t>
+    <t>57 E 57th St, New York NY</t>
   </si>
   <si>
     <t>(40.7621879, -73.97160629999999)</t>
@@ -464,7 +464,7 @@
     <t>Four Seasons Hotel New York Downtown</t>
   </si>
   <si>
-    <t>27 Barclay St</t>
+    <t>27 Barclay St, New York NY</t>
   </si>
   <si>
     <t>(40.7124823, -74.0091577)</t>
@@ -473,16 +473,16 @@
     <t>Gansevoort Park Hotel</t>
   </si>
   <si>
-    <t>420 Park Ave S</t>
-  </si>
-  <si>
-    <t>(44.9756587, -93.2603352)</t>
+    <t>420 Park Ave S, New York NY</t>
+  </si>
+  <si>
+    <t>(40.743899, -73.9841241)</t>
   </si>
   <si>
     <t>Gramercy Park Hotel</t>
   </si>
   <si>
-    <t>2 Lexington Ave</t>
+    <t>2 Lexington Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7385531, -73.985895)</t>
@@ -491,7 +491,7 @@
     <t>Grand Hyatt New York</t>
   </si>
   <si>
-    <t>109 E 42nd St</t>
+    <t>109 E 42nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7520393, -73.9763424)</t>
@@ -500,7 +500,7 @@
     <t>Hampton Inn Manhattan 35th Street Empire State Building</t>
   </si>
   <si>
-    <t>59 W 35th St</t>
+    <t>59 W 35th St, New York NY</t>
   </si>
   <si>
     <t>(40.7503521, -73.9863489)</t>
@@ -509,7 +509,7 @@
     <t>Hampton Inn Manhattan Chelsea</t>
   </si>
   <si>
-    <t>108 W 24th St</t>
+    <t>108 W 24th St, New York NY</t>
   </si>
   <si>
     <t>(40.7436362, -73.9930909)</t>
@@ -518,16 +518,16 @@
     <t>Hampton Inn Manhattan Madison Square Garden Area</t>
   </si>
   <si>
-    <t>116 W 31st St</t>
-  </si>
-  <si>
-    <t>(40.748029, -73.9902006)</t>
+    <t>116 W 31st St, New York NY</t>
+  </si>
+  <si>
+    <t>(40.74804899999999, -73.990182)</t>
   </si>
   <si>
     <t>Hampton Inn Manhattan SoHo</t>
   </si>
   <si>
-    <t>54 Watts St</t>
+    <t>54 Watts St, New York NY</t>
   </si>
   <si>
     <t>(40.7238863, -74.0052534)</t>
@@ -536,7 +536,7 @@
     <t>Hampton Inn Manhattan Times Square Central</t>
   </si>
   <si>
-    <t>220 W 41st St</t>
+    <t>220 W 41st St, New York NY</t>
   </si>
   <si>
     <t>(40.7556364, -73.9886858)</t>
@@ -545,7 +545,7 @@
     <t>Hampton Inn ManhattanTimes Square South</t>
   </si>
   <si>
-    <t>337 W 39th St</t>
+    <t>337 W 39th St, New York NY</t>
   </si>
   <si>
     <t>(40.7562619, -73.9928494)</t>
@@ -554,7 +554,7 @@
     <t>Hampton Inn New York Manhattan Times Square North</t>
   </si>
   <si>
-    <t>851 8th Ave</t>
+    <t>851 8th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7634278, -73.98595)</t>
@@ -563,7 +563,7 @@
     <t>Hilton Garden Inn New York Central Park South Midtown West</t>
   </si>
   <si>
-    <t>237 W 54th St</t>
+    <t>237 W 54th St, New York NY</t>
   </si>
   <si>
     <t>(40.76453190000001, -73.983043)</t>
@@ -572,7 +572,7 @@
     <t>Hilton Garden Inn New York Chelsea</t>
   </si>
   <si>
-    <t>121 W 28th St</t>
+    <t>121 W 28th St, New York NY</t>
   </si>
   <si>
     <t>(40.7466303, -73.9914265)</t>
@@ -581,7 +581,7 @@
     <t>Hilton Garden Inn New York City Tribeca</t>
   </si>
   <si>
-    <t>39 Ave Of The Americas</t>
+    <t>39 Ave Of The Americas, New York NY</t>
   </si>
   <si>
     <t>(40.7209088, -74.0055618)</t>
@@ -590,7 +590,7 @@
     <t>Hilton Garden Inn New York Midtown Park Avenue</t>
   </si>
   <si>
-    <t>45 E 33rd St</t>
+    <t>45 E 33rd St, New York NY</t>
   </si>
   <si>
     <t>(40.7468631, -73.9822971)</t>
@@ -599,7 +599,7 @@
     <t>Hilton Garden Inn New York Times Square</t>
   </si>
   <si>
-    <t>790 8th Ave</t>
+    <t>790 8th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7612163, -73.9865155)</t>
@@ -608,7 +608,7 @@
     <t>Hilton Garden Inn New York Times Square Central</t>
   </si>
   <si>
-    <t>136 W 42nd St</t>
+    <t>136 W 42nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7552669, -73.98607059999999)</t>
@@ -617,7 +617,7 @@
     <t>Hilton Garden Inn New York West 35th Street</t>
   </si>
   <si>
-    <t>63 W 35th St</t>
+    <t>63 W 35th St, New York NY</t>
   </si>
   <si>
     <t>(40.7504261, -73.9865346)</t>
@@ -626,7 +626,7 @@
     <t>Hilton Manhattan East</t>
   </si>
   <si>
-    <t>304 E 42nd St</t>
+    <t>304 E 42nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7494205, -73.9719069)</t>
@@ -635,16 +635,16 @@
     <t>Hilton Millenium Hotel</t>
   </si>
   <si>
-    <t>55 Church St</t>
-  </si>
-  <si>
-    <t>(41.3048384, -72.9261626)</t>
+    <t>55 Church St, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7111522, -74.01035209999999)</t>
   </si>
   <si>
     <t>Hilton New York Fashion District</t>
   </si>
   <si>
-    <t>152 W 26th St</t>
+    <t>152 W 26th St, New York NY</t>
   </si>
   <si>
     <t>(40.7455199, -73.993757)</t>
@@ -653,7 +653,7 @@
     <t>Hilton New York Midtown</t>
   </si>
   <si>
-    <t>1335 Ave Of The Americas</t>
+    <t>1335 Ave Of The Americas, New York NY</t>
   </si>
   <si>
     <t>(40.7624779, -73.9795163)</t>
@@ -662,7 +662,7 @@
     <t>Hilton Times Square</t>
   </si>
   <si>
-    <t>234 W 42nd St</t>
+    <t>234 W 42nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7563592, -73.9888728)</t>
@@ -671,7 +671,7 @@
     <t>Holiday Inn Express Manhattan Times Square South</t>
   </si>
   <si>
-    <t>60 W 36th St</t>
+    <t>60 W 36th St, New York NY</t>
   </si>
   <si>
     <t>(40.75048779999999, -73.9860534)</t>
@@ -680,7 +680,7 @@
     <t>Holiday Inn Express New York City Times Square</t>
   </si>
   <si>
-    <t>343 W 39th St</t>
+    <t>343 W 39th St, New York NY</t>
   </si>
   <si>
     <t>(40.7563598, -73.9930851)</t>
@@ -689,7 +689,7 @@
     <t>Holiday Inn Express NYC Madison Square Garden</t>
   </si>
   <si>
-    <t>232 W 29th St</t>
+    <t>232 W 29th St, New York NY</t>
   </si>
   <si>
     <t>(40.748397, -73.994704)</t>
@@ -698,7 +698,7 @@
     <t>Holiday Inn Manhattan 6th Avenue Chelsea</t>
   </si>
   <si>
-    <t>125 W 26th St</t>
+    <t>125 W 26th St, New York NY</t>
   </si>
   <si>
     <t>(40.7453825, -73.9922357)</t>
@@ -707,7 +707,7 @@
     <t>Holiday Inn Manhattan Financial District</t>
   </si>
   <si>
-    <t>99 Washington St</t>
+    <t>99 Washington St, New York NY</t>
   </si>
   <si>
     <t>(40.7082705, -74.01408909999999)</t>
@@ -716,7 +716,7 @@
     <t>Holiday Inn New York City Lower East Side</t>
   </si>
   <si>
-    <t>150 Delancey St</t>
+    <t>150 Delancey St, New York NY</t>
   </si>
   <si>
     <t>(40.7182709, -73.9862002)</t>
@@ -725,16 +725,16 @@
     <t>Holiday Inn New York City Midtown 57th St</t>
   </si>
   <si>
-    <t>440 W 57th St</t>
+    <t>440 W 57th St, New York NY</t>
   </si>
   <si>
     <t>(40.7682663, -73.9874155)</t>
   </si>
   <si>
-    <t>Holiday Inn New York City Times Square  </t>
-  </si>
-  <si>
-    <t>585 8th Ave</t>
+    <t>Holiday Inn New York City Times Square</t>
+  </si>
+  <si>
+    <t>585 8th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.755229, -73.99171199999999)</t>
@@ -743,7 +743,7 @@
     <t>Homewood Suites New York Midtown Manhattan Times Square South</t>
   </si>
   <si>
-    <t>312 W 37th St</t>
+    <t>312 W 37th St, New York NY</t>
   </si>
   <si>
     <t>(40.7542902, -73.9930667)</t>
@@ -752,7 +752,7 @@
     <t>Hotel Chandler</t>
   </si>
   <si>
-    <t>12 E 31st St</t>
+    <t>12 E 31st St, New York NY</t>
   </si>
   <si>
     <t>(40.7459723, -73.985222)</t>
@@ -761,7 +761,7 @@
     <t>Hotel Gansevoort</t>
   </si>
   <si>
-    <t>18 9th Ave</t>
+    <t>18 9th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7398532, -74.00573349999999)</t>
@@ -770,7 +770,7 @@
     <t>Hotel Hugo Soho</t>
   </si>
   <si>
-    <t>525 Greenwich St</t>
+    <t>525 Greenwich St, New York NY</t>
   </si>
   <si>
     <t>(40.7263865, -74.0087252)</t>
@@ -779,7 +779,7 @@
     <t>Hotel Indigo Lower East Side New York</t>
   </si>
   <si>
-    <t>171 Ludlow St</t>
+    <t>171 Ludlow St, New York NY</t>
   </si>
   <si>
     <t>(40.7217542, -73.9878377)</t>
@@ -788,7 +788,7 @@
     <t>Hotel Le Soleil</t>
   </si>
   <si>
-    <t>38 W 36th St</t>
+    <t>38 W 36th St, New York NY</t>
   </si>
   <si>
     <t>(40.7502658, -73.98548)</t>
@@ -797,7 +797,7 @@
     <t>Hotel Mela</t>
   </si>
   <si>
-    <t>120 W 44th St</t>
+    <t>120 W 44th St, New York NY</t>
   </si>
   <si>
     <t>(40.7563739, -73.9843318)</t>
@@ -806,7 +806,7 @@
     <t>Hotel On Rivington</t>
   </si>
   <si>
-    <t>107 Rivington St</t>
+    <t>107 Rivington St, New York NY</t>
   </si>
   <si>
     <t>(40.719762, -73.98809299999999)</t>
@@ -815,7 +815,7 @@
     <t>Hotel Pennsylvania</t>
   </si>
   <si>
-    <t>401 7th Ave</t>
+    <t>401 7th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7499042, -73.99104040000002)</t>
@@ -824,16 +824,16 @@
     <t>Hudson Hotel</t>
   </si>
   <si>
-    <t>358 W 58th St</t>
+    <t>358 W 58th St, New York NY</t>
   </si>
   <si>
     <t>(40.7682097, -73.9848706)</t>
   </si>
   <si>
-    <t>Hyatt Place New York Midtown South </t>
-  </si>
-  <si>
-    <t>52 W 36th St</t>
+    <t>Hyatt Place New York Midtown South</t>
+  </si>
+  <si>
+    <t>52 W 36th St, New York NY</t>
   </si>
   <si>
     <t>(40.7504054, -73.9858144)</t>
@@ -842,7 +842,7 @@
     <t>Hyatt Times Square</t>
   </si>
   <si>
-    <t>135 W 45th St</t>
+    <t>135 W 45th St, New York NY</t>
   </si>
   <si>
     <t>(40.7575491, -73.98418389999999)</t>
@@ -851,7 +851,7 @@
     <t>Hyatt Union Square</t>
   </si>
   <si>
-    <t>134 4th Ave</t>
+    <t>134 4th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7334085, -73.99023369999999)</t>
@@ -860,7 +860,7 @@
     <t>Iberostar Hotels &amp; Resorts 70 Park Avenue</t>
   </si>
   <si>
-    <t>70 Park Ave</t>
+    <t>70 Park Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7498316, -73.9797524)</t>
@@ -869,16 +869,16 @@
     <t>Innside by Melia NoMad</t>
   </si>
   <si>
-    <t>132-142 W 27th St</t>
-  </si>
-  <si>
-    <t>(36.8719639, -76.2841068)</t>
+    <t>132-142 W 27th St, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7459181, -73.9926305)</t>
   </si>
   <si>
     <t>InterContinental New York Barclay</t>
   </si>
   <si>
-    <t>111 E 48th St</t>
+    <t>111 E 48th St, New York NY</t>
   </si>
   <si>
     <t>(40.7557423, -73.9734883)</t>
@@ -887,7 +887,7 @@
     <t>InterContinental New York Times Square</t>
   </si>
   <si>
-    <t>300 W 44th St</t>
+    <t>300 W 44th St, New York NY</t>
   </si>
   <si>
     <t>(40.75857, -73.989723)</t>
@@ -896,7 +896,7 @@
     <t>Jolly Madison Towers</t>
   </si>
   <si>
-    <t>22 E 38th St</t>
+    <t>22 E 38th St, New York NY</t>
   </si>
   <si>
     <t>(40.7499818, -73.98096269999999)</t>
@@ -905,7 +905,7 @@
     <t>JW Marriott Essex House New York</t>
   </si>
   <si>
-    <t>160 Central Park S</t>
+    <t>160 Central Park S, New York NY</t>
   </si>
   <si>
     <t>(40.76615839999999, -73.97866929999999)</t>
@@ -914,7 +914,7 @@
     <t>Kimpton Hotel Eventi</t>
   </si>
   <si>
-    <t>851 Ave Of The Americas</t>
+    <t>851 Ave Of The Americas, New York NY</t>
   </si>
   <si>
     <t>(40.7472104, -73.9899179)</t>
@@ -923,7 +923,7 @@
     <t>Kimpton Ink 48 Hotel</t>
   </si>
   <si>
-    <t>653 11th Ave</t>
+    <t>653 11th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7645693, -73.995987)</t>
@@ -932,7 +932,7 @@
     <t>Kitano Hotel</t>
   </si>
   <si>
-    <t>66 Park Ave</t>
+    <t>66 Park Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7495879, -73.9799716)</t>
@@ -941,7 +941,7 @@
     <t>La Quinta Inns &amp; Suites Manhattan</t>
   </si>
   <si>
-    <t>17 W 32nd St</t>
+    <t>17 W 32nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7478132, -73.986525)</t>
@@ -950,7 +950,7 @@
     <t>Langham Place Fifth Avenue</t>
   </si>
   <si>
-    <t>400 5th Ave</t>
+    <t>400 5th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7501161, -73.98381140000001)</t>
@@ -959,7 +959,7 @@
     <t>Le Meridien Parker New York</t>
   </si>
   <si>
-    <t>119 W 56th St</t>
+    <t>119 W 56th St, New York NY</t>
   </si>
   <si>
     <t>(40.7641849, -73.9784051)</t>
@@ -968,7 +968,7 @@
     <t>Lotte New York Palace</t>
   </si>
   <si>
-    <t>455 Madison Ave</t>
+    <t>455 Madison Ave, New York NY</t>
   </si>
   <si>
     <t>(40.75801999999999, -73.9749775)</t>
@@ -977,7 +977,7 @@
     <t>Manhattan NYC an Affinia Hotel</t>
   </si>
   <si>
-    <t>371 7th Ave</t>
+    <t>371 7th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7487055, -73.9916558)</t>
@@ -986,16 +986,16 @@
     <t>Marriott New York Downtown</t>
   </si>
   <si>
-    <t>85 West St</t>
-  </si>
-  <si>
-    <t>(40.709512, -74.01448909999999)</t>
+    <t>85 West St, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7095123, -74.0144893)</t>
   </si>
   <si>
     <t>Marriott New York East Side</t>
   </si>
   <si>
-    <t>525 Lexington Ave</t>
+    <t>525 Lexington Ave, New York NY</t>
   </si>
   <si>
     <t>(40.75543649999999, -73.97264179999999)</t>
@@ -1004,7 +1004,7 @@
     <t>Marriott New York Marquis</t>
   </si>
   <si>
-    <t>1535 Broadway</t>
+    <t>1535 Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.7586115, -73.98624749999999)</t>
@@ -1013,7 +1013,7 @@
     <t>Millennium Broadway</t>
   </si>
   <si>
-    <t>145 W 44th St</t>
+    <t>145 W 44th St, New York NY</t>
   </si>
   <si>
     <t>(40.7570734, -73.9847996)</t>
@@ -1022,16 +1022,16 @@
     <t>Millennium One UN</t>
   </si>
   <si>
-    <t>1 United Nations Plz</t>
-  </si>
-  <si>
-    <t>(40.7507161, -73.9694292)</t>
+    <t>1 United Nations Plz, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7504701, -73.96912209999999)</t>
   </si>
   <si>
     <t>NoMO SoHo</t>
   </si>
   <si>
-    <t>9 Crosby St</t>
+    <t>9 Crosby St, New York NY</t>
   </si>
   <si>
     <t>(40.7198301, -74.0000708)</t>
@@ -1040,7 +1040,7 @@
     <t>Novotel New York</t>
   </si>
   <si>
-    <t>226 W 52nd St</t>
+    <t>226 W 52nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7626833, -73.9837907)</t>
@@ -1049,7 +1049,7 @@
     <t>Omni Berkshire Place</t>
   </si>
   <si>
-    <t>21 E 52nd St</t>
+    <t>21 E 52nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7594267, -73.9749476)</t>
@@ -1058,7 +1058,7 @@
     <t>Paramount Hotel</t>
   </si>
   <si>
-    <t>235 W 46th St</t>
+    <t>235 W 46th St, New York NY</t>
   </si>
   <si>
     <t>(40.759642, -73.986987)</t>
@@ -1067,7 +1067,7 @@
     <t>Park Central Hotel</t>
   </si>
   <si>
-    <t>870 7th Ave</t>
+    <t>870 7th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7647208, -73.981184)</t>
@@ -1076,7 +1076,7 @@
     <t>Park Lane Hotel</t>
   </si>
   <si>
-    <t>36 Central Park S</t>
+    <t>36 Central Park S, New York NY</t>
   </si>
   <si>
     <t>(40.76482, -73.975335)</t>
@@ -1085,7 +1085,7 @@
     <t>Park South Hotel</t>
   </si>
   <si>
-    <t>122 E 28th St</t>
+    <t>122 E 28th St, New York NY</t>
   </si>
   <si>
     <t>(40.7428157, -73.9831232)</t>
@@ -1094,7 +1094,7 @@
     <t>Q &amp; A Hotel</t>
   </si>
   <si>
-    <t>70 Pine St</t>
+    <t>70 Pine St, New York NY</t>
   </si>
   <si>
     <t>(40.7064289, -74.00765679999999)</t>
@@ -1103,7 +1103,7 @@
     <t>Radisson Martinique On Broadway</t>
   </si>
   <si>
-    <t>49 W 32nd St</t>
+    <t>49 W 32nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7483821, -73.9876031)</t>
@@ -1112,7 +1112,7 @@
     <t>Refinery Hotel</t>
   </si>
   <si>
-    <t>63 W 38th ST</t>
+    <t>63 W 38th ST, New York NY</t>
   </si>
   <si>
     <t>(40.7522071, -73.9853713)</t>
@@ -1121,7 +1121,7 @@
     <t>Renaissance New York Midtown Hotel</t>
   </si>
   <si>
-    <t>218 W 35th St</t>
+    <t>218 W 35th St, New York NY</t>
   </si>
   <si>
     <t>(40.751789, -73.991033)</t>
@@ -1130,7 +1130,7 @@
     <t>Renaissance New York Times Square Hotel</t>
   </si>
   <si>
-    <t>714 7th Ave</t>
+    <t>714 7th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7596846, -73.9846391)</t>
@@ -1139,7 +1139,7 @@
     <t>Residence Inn New York Downtown Manhattan World Trade Center Area</t>
   </si>
   <si>
-    <t>170 Broadway</t>
+    <t>170 Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.7095628, -74.0099212)</t>
@@ -1151,7 +1151,7 @@
     <t>Residence Inn New York Manhattan Midtown East</t>
   </si>
   <si>
-    <t>148 E 48th St</t>
+    <t>148 E 48th St, New York NY</t>
   </si>
   <si>
     <t>(40.7548764, -73.97297499999999)</t>
@@ -1160,7 +1160,7 @@
     <t>Residence Inn New York Manhattan Times Square</t>
   </si>
   <si>
-    <t>1033 Ave Of The Americas</t>
+    <t>1033 Ave Of The Americas, New York NY</t>
   </si>
   <si>
     <t>(40.7528536, -73.9859622)</t>
@@ -1169,7 +1169,7 @@
     <t>Ritz-Carlton New York Battery Park</t>
   </si>
   <si>
-    <t>2 West St</t>
+    <t>2 West St, New York NY</t>
   </si>
   <si>
     <t>(40.7055158, -74.0173997)</t>
@@ -1178,7 +1178,7 @@
     <t>Ritz-Carlton New York Central Park</t>
   </si>
   <si>
-    <t>50 Central Park S</t>
+    <t>50 Central Park S, New York NY</t>
   </si>
   <si>
     <t>(40.7653101, -73.9760488)</t>
@@ -1187,7 +1187,7 @@
     <t>Row NYC</t>
   </si>
   <si>
-    <t>700 8th Ave</t>
+    <t>700 8th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7587072, -73.9882975)</t>
@@ -1196,16 +1196,16 @@
     <t>Shelburne NYC an Affinia Hotel</t>
   </si>
   <si>
-    <t>303 Lexington Ave</t>
-  </si>
-  <si>
-    <t>(40.7484054, -73.97794669999999)</t>
+    <t>303 Lexington Ave, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7484908, -73.9779494)</t>
   </si>
   <si>
     <t>Sheraton Hotel New York Times Square</t>
   </si>
   <si>
-    <t>811 7th Ave</t>
+    <t>811 7th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.762342, -73.981433)</t>
@@ -1214,7 +1214,7 @@
     <t>Sheraton Hotel Tribeca New York</t>
   </si>
   <si>
-    <t>370 Canal St</t>
+    <t>370 Canal St, New York NY</t>
   </si>
   <si>
     <t>(40.720684, -74.004357)</t>
@@ -1223,7 +1223,7 @@
     <t>Sixty LES</t>
   </si>
   <si>
-    <t>190 Allen St</t>
+    <t>190 Allen St, New York NY</t>
   </si>
   <si>
     <t>(40.7220729, -73.98850829999999)</t>
@@ -1232,7 +1232,7 @@
     <t>Sixty SOHO</t>
   </si>
   <si>
-    <t>60 Thompson St</t>
+    <t>60 Thompson St, New York NY</t>
   </si>
   <si>
     <t>(40.7239619, -74.00310770000002)</t>
@@ -1241,7 +1241,7 @@
     <t>Sofitel New York</t>
   </si>
   <si>
-    <t>45 W 44th St</t>
+    <t>45 W 44th St, New York NY</t>
   </si>
   <si>
     <t>(40.7557843, -73.9817968)</t>
@@ -1250,7 +1250,7 @@
     <t>Soho Grand Hotel</t>
   </si>
   <si>
-    <t>310 W Broadway</t>
+    <t>310 W Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.7220519, -74.0045064)</t>
@@ -1259,7 +1259,7 @@
     <t>Sohotel</t>
   </si>
   <si>
-    <t>341 Broome St</t>
+    <t>341 Broome St, New York NY</t>
   </si>
   <si>
     <t>(40.719434, -73.9947186)</t>
@@ -1268,7 +1268,7 @@
     <t>Springhill Suites New York Manhattan Midtown Fifth Avenue</t>
   </si>
   <si>
-    <t>25 W 37th St</t>
+    <t>25 W 37th St, New York NY</t>
   </si>
   <si>
     <t>(40.7512062, -73.9846652)</t>
@@ -1277,7 +1277,7 @@
     <t>St Regis New York</t>
   </si>
   <si>
-    <t>2 E 55th St</t>
+    <t>2 E 55th St, New York NY</t>
   </si>
   <si>
     <t>(40.7613979, -73.9746128)</t>
@@ -1286,7 +1286,7 @@
     <t>St. Giles Hotel New York The Court</t>
   </si>
   <si>
-    <t>130 E 39th St</t>
+    <t>130 E 39th St, New York NY</t>
   </si>
   <si>
     <t>(40.7494703, -73.9777704)</t>
@@ -1295,7 +1295,7 @@
     <t>Staybridge Suites Times Square New York City</t>
   </si>
   <si>
-    <t>340 W 40th St</t>
+    <t>340 W 40th St, New York NY</t>
   </si>
   <si>
     <t>(40.7565465, -73.9927096)</t>
@@ -1304,7 +1304,7 @@
     <t>The Benjamin</t>
   </si>
   <si>
-    <t>125 E 50th St</t>
+    <t>125 E 50th St, New York NY</t>
   </si>
   <si>
     <t>(40.7565951, -73.971986)</t>
@@ -1313,7 +1313,7 @@
     <t>The Evelyn</t>
   </si>
   <si>
-    <t>7 E 27th St</t>
+    <t>7 E 27th St, New York NY</t>
   </si>
   <si>
     <t>(40.7439696, -73.9869902)</t>
@@ -1322,7 +1322,7 @@
     <t>The Gallivant Times Square</t>
   </si>
   <si>
-    <t>234 W 48th St</t>
+    <t>234 W 48th St, New York NY</t>
   </si>
   <si>
     <t>(40.7605461, -73.9863518)</t>
@@ -1331,7 +1331,7 @@
     <t>The Gregory</t>
   </si>
   <si>
-    <t>42 W 35th St</t>
+    <t>42 W 35th St, New York NY</t>
   </si>
   <si>
     <t>(40.7497853, -73.9862035)</t>
@@ -1340,7 +1340,7 @@
     <t>The James New York Soho</t>
   </si>
   <si>
-    <t>27 Grand St</t>
+    <t>27 Grand St, New York NY</t>
   </si>
   <si>
     <t>(40.7227053, -74.0047546)</t>
@@ -1349,7 +1349,7 @@
     <t>The Knickerbocker</t>
   </si>
   <si>
-    <t>1466 Broadway</t>
+    <t>1466 Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.75531429999999, -73.98607419999999)</t>
@@ -1358,7 +1358,7 @@
     <t>The London NYC</t>
   </si>
   <si>
-    <t>151 W 54th St</t>
+    <t>151 W 54th St, New York NY</t>
   </si>
   <si>
     <t>(40.7635061, -73.9806361)</t>
@@ -1367,7 +1367,7 @@
     <t>The Ludlow Hotel</t>
   </si>
   <si>
-    <t>180 Ludlow St</t>
+    <t>180 Ludlow St, New York NY</t>
   </si>
   <si>
     <t>(40.7218313, -73.98722149999999)</t>
@@ -1376,7 +1376,7 @@
     <t>The Manhattan @ Times Square Hotel</t>
   </si>
   <si>
-    <t>790 7th Ave</t>
+    <t>790 7th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.761985, -73.9829247)</t>
@@ -1385,7 +1385,7 @@
     <t>The Marcel @ Gramercy</t>
   </si>
   <si>
-    <t>201 E 24th St</t>
+    <t>201 E 24th St, New York NY</t>
   </si>
   <si>
     <t>(40.7394842, -73.9822559)</t>
@@ -1394,7 +1394,7 @@
     <t>The Marmara Park Avenue</t>
   </si>
   <si>
-    <t>114 E 32nd St</t>
+    <t>114 E 32nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7453037, -73.9816202)</t>
@@ -1403,7 +1403,7 @@
     <t>The NoMad Hotel</t>
   </si>
   <si>
-    <t>1170 Broadway</t>
+    <t>1170 Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.7449457, -73.98845589999999)</t>
@@ -1412,7 +1412,7 @@
     <t>The Peninsula New York</t>
   </si>
   <si>
-    <t>700 5th Ave</t>
+    <t>700 5th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7616194, -73.97541439999999)</t>
@@ -1421,7 +1421,7 @@
     <t>The Plaza A Fairmont Managed Hotel</t>
   </si>
   <si>
-    <t>768 5th Ave</t>
+    <t>768 5th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7646095, -73.97435469999999)</t>
@@ -1430,7 +1430,7 @@
     <t>The Redbury New York</t>
   </si>
   <si>
-    <t>29 E 29th St</t>
+    <t>29 E 29th St, New York NY</t>
   </si>
   <si>
     <t>(40.7447125, -73.9844689)</t>
@@ -1439,7 +1439,7 @@
     <t>The Roger Williams</t>
   </si>
   <si>
-    <t>131 Madison Ave</t>
+    <t>131 Madison Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7456133, -73.9841399)</t>
@@ -1448,7 +1448,7 @@
     <t>The Roosevelt Hotel</t>
   </si>
   <si>
-    <t>45 E 45th St</t>
+    <t>45 E 45th St, New York NY</t>
   </si>
   <si>
     <t>(40.7547501, -73.97747869999999)</t>
@@ -1457,7 +1457,7 @@
     <t>The Roxy Hotel Tribeca</t>
   </si>
   <si>
-    <t>2 Ave Of The Americas</t>
+    <t>2 Ave Of The Americas, New York NY</t>
   </si>
   <si>
     <t>(40.71938129999999, -74.00478100000001)</t>
@@ -1466,7 +1466,7 @@
     <t>The Standard East Village</t>
   </si>
   <si>
-    <t>25 Cooper Sq</t>
+    <t>25 Cooper Sq, New York NY</t>
   </si>
   <si>
     <t>(40.7279316, -73.9907857)</t>
@@ -1475,7 +1475,7 @@
     <t>The Standard High Line</t>
   </si>
   <si>
-    <t>848 Washington St</t>
+    <t>848 Washington St, New York NY</t>
   </si>
   <si>
     <t>(40.740854, -74.0079523)</t>
@@ -1484,7 +1484,7 @@
     <t>Thompson Hotels The Beekman Hotel</t>
   </si>
   <si>
-    <t>5 Beekman St</t>
+    <t>5 Beekman St, New York NY</t>
   </si>
   <si>
     <t>(40.7111944, -74.0069018)</t>
@@ -1493,16 +1493,16 @@
     <t>Trump Hotel Collection SoHo New York</t>
   </si>
   <si>
-    <t>246 Spring St</t>
-  </si>
-  <si>
-    <t>(32.787083, -79.9553)</t>
-  </si>
-  <si>
-    <t>Tryp by Wyndham New York City Times Square South </t>
-  </si>
-  <si>
-    <t>345 W 35th St </t>
+    <t>246 Spring St, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7253319, -74.00549459999999)</t>
+  </si>
+  <si>
+    <t>Tryp by Wyndham New York City Times Square South</t>
+  </si>
+  <si>
+    <t>345 W 35th St , New York NY</t>
   </si>
   <si>
     <t>(40.75377, -73.994541)</t>
@@ -1511,7 +1511,7 @@
     <t>Viceroy New York</t>
   </si>
   <si>
-    <t>120 W 57th St</t>
+    <t>120 W 57th St, New York NY</t>
   </si>
   <si>
     <t>(40.7645582, -73.9784803)</t>
@@ -1520,7 +1520,7 @@
     <t>W Hotel New York</t>
   </si>
   <si>
-    <t>541 Lexington Ave</t>
+    <t>541 Lexington Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7561148, -73.9722118)</t>
@@ -1529,7 +1529,7 @@
     <t>W Hotel New York Downtown</t>
   </si>
   <si>
-    <t>8 Albany St</t>
+    <t>8 Albany St, New York NY</t>
   </si>
   <si>
     <t>(40.7091948, -74.0135809)</t>
@@ -1538,7 +1538,7 @@
     <t>W Hotel New York Times Square</t>
   </si>
   <si>
-    <t>1567 Broadway</t>
+    <t>1567 Broadway, New York NY</t>
   </si>
   <si>
     <t>(40.7593257, -73.98559949999999)</t>
@@ -1547,25 +1547,25 @@
     <t>W Hotel Union Square</t>
   </si>
   <si>
-    <t>201 Park Ave S</t>
-  </si>
-  <si>
-    <t>(44.9776501, -93.2586615)</t>
+    <t>201 Park Ave S, New York NY</t>
+  </si>
+  <si>
+    <t>(40.7365984, -73.9885355)</t>
   </si>
   <si>
     <t>Waldorf Astoria New York</t>
   </si>
   <si>
-    <t>301 Park Ave</t>
-  </si>
-  <si>
-    <t>(40.7565712, -73.97364209999999)</t>
+    <t>301 Park Ave, New York NY</t>
+  </si>
+  <si>
+    <t>(40.75651999999999, -73.9734057)</t>
   </si>
   <si>
     <t>Walker Hotel Greenwich Village</t>
   </si>
   <si>
-    <t>52 W 13th St</t>
+    <t>52 W 13th St, New York NY</t>
   </si>
   <si>
     <t>(40.7361469, -73.99666169999999)</t>
@@ -1574,7 +1574,7 @@
     <t>Warwick New York Hotel</t>
   </si>
   <si>
-    <t>65 W 54th St</t>
+    <t>65 W 54th St, New York NY</t>
   </si>
   <si>
     <t>(40.7624022, -73.9782725)</t>
@@ -1583,7 +1583,7 @@
     <t>Westin New York @ Times Square</t>
   </si>
   <si>
-    <t>270 W 43rd St</t>
+    <t>270 W 43rd St, New York NY</t>
   </si>
   <si>
     <t>(40.757444, -73.9891926)</t>
@@ -1592,16 +1592,16 @@
     <t>Westin New York Grand Central</t>
   </si>
   <si>
-    <t>212 E 42nd St</t>
+    <t>212 E 42nd St, New York NY</t>
   </si>
   <si>
     <t>(40.7502017, -73.9740114)</t>
   </si>
   <si>
-    <t>Wyndham Garden Hotel Chinatown New York </t>
-  </si>
-  <si>
-    <t>93 Bowery St </t>
+    <t>Wyndham Garden Hotel Chinatown New York</t>
+  </si>
+  <si>
+    <t>93 Bowery St , New York NY</t>
   </si>
   <si>
     <t>(40.7170107, -73.9951885)</t>
@@ -1610,7 +1610,7 @@
     <t>Wyndham New Yorker Hotel</t>
   </si>
   <si>
-    <t>481 8th Ave</t>
+    <t>481 8th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7527038, -73.9934785)</t>
@@ -1619,7 +1619,7 @@
     <t>Yotel New York @ Times Square</t>
   </si>
   <si>
-    <t>570 10th Ave</t>
+    <t>570 10th Ave, New York NY</t>
   </si>
   <si>
     <t>(40.7591568, -73.9954561)</t>
@@ -1741,21 +1741,21 @@
   </sheetPr>
   <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C171" activeCellId="0" sqref="C171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.55060728744939"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0607287449393"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.9635627530364"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
